--- a/figures and tables/RobotControllerSystem.xlsx
+++ b/figures and tables/RobotControllerSystem.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\drumming-robot-masters-thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\GitHub\drumming-robot-masters-thesis\figures and tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="6075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="97">
   <si>
     <t>Serial Module</t>
   </si>
@@ -41,15 +41,9 @@
     <t>State</t>
   </si>
   <si>
-    <t>Button Input + Result</t>
-  </si>
-  <si>
     <t>Controller Output</t>
   </si>
   <si>
-    <t>{CHAR}</t>
-  </si>
-  <si>
     <t>BTN UP</t>
   </si>
   <si>
@@ -59,12 +53,6 @@
     <t>LED</t>
   </si>
   <si>
-    <t>LEFT Servo</t>
-  </si>
-  <si>
-    <t>RIGHT Servo</t>
-  </si>
-  <si>
     <t>Delay (ms)</t>
   </si>
   <si>
@@ -78,15 +66,6 @@
   </si>
   <si>
     <t>State=1</t>
-  </si>
-  <si>
-    <t>ALT on/off</t>
-  </si>
-  <si>
-    <t>RAND up/down</t>
-  </si>
-  <si>
-    <t>ALT up/down</t>
   </si>
   <si>
     <t>BPM = 60-61
@@ -341,13 +320,34 @@
   <si>
     <t>PAUSED
 mode: 25</t>
+  </si>
+  <si>
+    <t>Input + Result</t>
+  </si>
+  <si>
+    <t>RAND UP/DN</t>
+  </si>
+  <si>
+    <t>ON/OFF</t>
+  </si>
+  <si>
+    <t>UP/DN</t>
+  </si>
+  <si>
+    <t>RT Servo</t>
+  </si>
+  <si>
+    <t>LT Servo</t>
+  </si>
+  <si>
+    <t>CHAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,7 +357,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -371,7 +377,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -541,49 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -634,19 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -690,66 +640,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -762,167 +690,118 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1238,938 +1117,852 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K29"/>
+  <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="1.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="7" style="11" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="6" style="11" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="D1" s="38" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="40"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D3" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="24"/>
+    </row>
+    <row r="4" spans="2:10" s="15" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="32" t="s">
+      <c r="D4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="33"/>
-    </row>
-    <row r="3" spans="1:11" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="E4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="4" t="s">
+      <c r="F4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="J4" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="27" t="s">
+    </row>
+    <row r="5" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="4">
+        <v>500</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="6" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="7">
+        <v>484</v>
+      </c>
+      <c r="J6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="11" t="s">
+    </row>
+    <row r="7" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="7">
+        <v>462</v>
+      </c>
+      <c r="J7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="11">
-        <v>500</v>
-      </c>
-      <c r="K4" s="12" t="s">
+    </row>
+    <row r="8" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="E8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="7">
+        <v>441</v>
+      </c>
+      <c r="J8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="16" t="s">
+    </row>
+    <row r="9" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="17">
-        <v>484</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="F9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="7">
+        <v>429</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="14">
-        <v>2</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="17">
-        <v>462</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="14">
-        <v>3</v>
-      </c>
-      <c r="E7" s="15" t="s">
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="7">
+        <v>417</v>
+      </c>
+      <c r="J10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="17">
-        <v>441</v>
-      </c>
-      <c r="K7" s="18" t="s">
+    </row>
+    <row r="11" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="14">
-        <v>4</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="7">
+        <v>400</v>
+      </c>
+      <c r="J11" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="17">
-        <v>429</v>
-      </c>
-      <c r="K8" s="18" t="s">
+    </row>
+    <row r="12" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="14">
-        <v>5</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="7">
+        <v>385</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="17">
-        <v>417</v>
-      </c>
-      <c r="K9" s="18" t="s">
+    </row>
+    <row r="13" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="14">
-        <v>6</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="E13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="7">
+        <v>375</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="17">
-        <v>400</v>
-      </c>
-      <c r="K10" s="18" t="s">
+    </row>
+    <row r="14" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="C14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="14">
-        <v>7</v>
-      </c>
-      <c r="E11" s="15" t="s">
+      <c r="E14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="7">
+        <v>366</v>
+      </c>
+      <c r="J14" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="17">
-        <v>385</v>
-      </c>
-      <c r="K11" s="18" t="s">
+    </row>
+    <row r="15" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="14">
-        <v>8</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="E15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="7">
+        <v>353</v>
+      </c>
+      <c r="J15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="17">
-        <v>375</v>
-      </c>
-      <c r="K12" s="18" t="s">
+    </row>
+    <row r="16" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="C16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="14">
-        <v>9</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="E16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="7">
+        <v>341</v>
+      </c>
+      <c r="J16" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="17">
-        <v>366</v>
-      </c>
-      <c r="K13" s="18" t="s">
+    </row>
+    <row r="17" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="C17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="14">
-        <v>10</v>
-      </c>
-      <c r="E14" s="15" t="s">
+      <c r="E17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="7">
+        <v>333</v>
+      </c>
+      <c r="J17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" s="17">
-        <v>353</v>
-      </c>
-      <c r="K14" s="18" t="s">
+    </row>
+    <row r="18" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="C18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="14">
-        <v>11</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="E18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="7">
+        <v>326</v>
+      </c>
+      <c r="J18" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="17">
-        <v>341</v>
-      </c>
-      <c r="K15" s="18" t="s">
+    </row>
+    <row r="19" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="C19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="14">
-        <v>12</v>
-      </c>
-      <c r="E16" s="15" t="s">
+      <c r="E19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="7">
+        <v>316</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="17">
-        <v>333</v>
-      </c>
-      <c r="K16" s="18" t="s">
+    </row>
+    <row r="20" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="C20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="14">
-        <v>13</v>
-      </c>
-      <c r="E17" s="15" t="s">
+      <c r="E20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="7">
+        <v>306</v>
+      </c>
+      <c r="J20" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="17">
-        <v>326</v>
-      </c>
-      <c r="K17" s="18" t="s">
+    </row>
+    <row r="21" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="C21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="14">
-        <v>14</v>
-      </c>
-      <c r="E18" s="15" t="s">
+      <c r="E21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="7">
+        <v>300</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="17">
-        <v>316</v>
-      </c>
-      <c r="K18" s="18" t="s">
+    </row>
+    <row r="22" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="C22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="14">
-        <v>15</v>
-      </c>
-      <c r="E19" s="15" t="s">
+      <c r="E22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="7">
+        <v>294</v>
+      </c>
+      <c r="J22" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F19" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="17">
-        <v>306</v>
-      </c>
-      <c r="K19" s="18" t="s">
+    </row>
+    <row r="23" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="C23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="14">
-        <v>16</v>
-      </c>
-      <c r="E20" s="15" t="s">
+      <c r="E23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="7">
+        <v>286</v>
+      </c>
+      <c r="J23" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="17">
-        <v>300</v>
-      </c>
-      <c r="K20" s="18" t="s">
+    </row>
+    <row r="24" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="C24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="14">
-        <v>17</v>
-      </c>
-      <c r="E21" s="15" t="s">
+      <c r="E24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="7">
+        <v>278</v>
+      </c>
+      <c r="J24" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="17">
-        <v>294</v>
-      </c>
-      <c r="K21" s="18" t="s">
+    </row>
+    <row r="25" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="C25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="D22" s="14">
-        <v>18</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="E25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="7">
+        <v>273</v>
+      </c>
+      <c r="J25" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J22" s="17">
-        <v>286</v>
-      </c>
-      <c r="K22" s="18" t="s">
+    </row>
+    <row r="26" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="C26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="14">
-        <v>19</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="E26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="7">
+        <v>268</v>
+      </c>
+      <c r="J26" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="17">
-        <v>278</v>
-      </c>
-      <c r="K23" s="18" t="s">
+    </row>
+    <row r="27" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="C27" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="14">
-        <v>20</v>
-      </c>
-      <c r="E24" s="15" t="s">
+      <c r="E27" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" s="7">
+        <v>261</v>
+      </c>
+      <c r="J27" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F24" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="17">
-        <v>273</v>
-      </c>
-      <c r="K24" s="18" t="s">
+    </row>
+    <row r="28" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="C28" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="14">
-        <v>21</v>
-      </c>
-      <c r="E25" s="15" t="s">
+      <c r="E28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="7">
+        <v>254</v>
+      </c>
+      <c r="J28" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="17">
-        <v>268</v>
-      </c>
-      <c r="K25" s="18" t="s">
+    </row>
+    <row r="29" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="C29" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="14">
-        <v>22</v>
-      </c>
-      <c r="E26" s="15" t="s">
+      <c r="E29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="7">
+        <v>250</v>
+      </c>
+      <c r="J29" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F26" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="17">
-        <v>261</v>
-      </c>
-      <c r="K26" s="18" t="s">
+    </row>
+    <row r="30" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="C30" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="14">
-        <v>23</v>
-      </c>
-      <c r="E27" s="15" t="s">
+      <c r="G30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" s="10">
+        <v>200</v>
+      </c>
+      <c r="J30" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="17">
-        <v>254</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" s="14">
-        <v>24</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="J28" s="17">
-        <v>250</v>
-      </c>
-      <c r="K28" s="18" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="20">
-        <v>25</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J29" s="21">
-        <v>200</v>
-      </c>
-      <c r="K29" s="22" t="s">
-        <v>96</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="D1:K1"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="D2:J2"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.1" footer="0.1"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/figures and tables/RobotControllerSystem.xlsx
+++ b/figures and tables/RobotControllerSystem.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="6075" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="98">
   <si>
     <t>Serial Module</t>
   </si>
@@ -341,6 +342,9 @@
   </si>
   <si>
     <t>CHAR</t>
+  </si>
+  <si>
+    <t>~</t>
   </si>
 </sst>
 </file>
@@ -708,7 +712,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -776,6 +780,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -788,12 +798,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -801,6 +805,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1119,7 +1135,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1141,10 +1159,10 @@
   <sheetData>
     <row r="1" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="28"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="29" t="s">
         <v>1</v>
       </c>
@@ -1162,17 +1180,17 @@
       <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="26"/>
+      <c r="F3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="24"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="26"/>
     </row>
     <row r="4" spans="2:10" s="15" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
@@ -1967,4 +1985,889 @@
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.1" footer="0.1"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J31"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" style="11" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="7" style="11" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="6" style="11" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="2:10" s="15" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="4">
+        <v>500</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="7">
+        <v>484</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="7">
+        <v>462</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I8" s="7">
+        <v>441</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" s="7">
+        <v>429</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="7">
+        <v>417</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="7">
+        <v>400</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="7">
+        <v>385</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="7">
+        <v>375</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="7">
+        <v>366</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I15" s="7">
+        <v>353</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I16" s="7">
+        <v>341</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="7">
+        <v>333</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="7">
+        <v>326</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="7">
+        <v>316</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="7">
+        <v>306</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I21" s="7">
+        <v>300</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="7">
+        <v>294</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="7">
+        <v>286</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="7">
+        <v>278</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="7">
+        <v>273</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" ht="26.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I26" s="7">
+        <v>268</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="I27" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="7">
+        <v>261</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="7">
+        <v>254</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I30" s="7">
+        <v>250</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" s="10">
+        <v>200</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>